--- a/src/test/resources/Excel/TestData.xlsx
+++ b/src/test/resources/Excel/TestData.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14400" windowHeight="3255"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15216" windowHeight="2820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="3" r:id="rId1"/>
-    <sheet name="doLogin" sheetId="1" r:id="rId2"/>
-    <sheet name="CreateAccount" sheetId="4" r:id="rId3"/>
+    <sheet name="doLogin_User" sheetId="1" r:id="rId2"/>
+    <sheet name="CreateAccountTest_User" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -42,16 +42,16 @@
     <t>123scorpio</t>
   </si>
   <si>
-    <t>doLogin</t>
-  </si>
-  <si>
     <t>MemberName</t>
   </si>
   <si>
     <t>Soumya Gupta</t>
   </si>
   <si>
-    <t>CreateAccount</t>
+    <t>doLogin_User1</t>
+  </si>
+  <si>
+    <t>CreateAccountTest_User1</t>
   </si>
 </sst>
 </file>
@@ -430,14 +430,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -450,7 +450,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -475,13 +475,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -519,23 +519,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
